--- a/API정리.xlsx
+++ b/API정리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyw\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyw\Documents\APTMentsAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>기능명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -175,6 +175,214 @@
   </si>
   <si>
     <t>pageNumber, pageSize 필수값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더함비즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순찰패드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/TheHamBiz/io/in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/TheHamBiz/io/out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/TheHamBiz/Patrol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpPost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpPetch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/TheHamBiz -&gt; 여긴 우리서버 주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  public class RequestInTheHamBizDTO
+  {
+      /// 입출차 일련번호
+      public string? IO_SEQ { get; set; }
+      /// 주차장 ID
+      public string? PARK_ID { get; set; }
+      /// 차량 번호
+      public string? CAR_NUM { get; set; }
+      /// 입출 상태
+      public string? IO_STATUS_TP { get; set; }
+      /// 입출 상태명
+      public string? IO_STATUS_TP_NM { get; set; }
+      /// 입차 GATE ID
+      public string? IN_GATE_ID { get; set; }
+      /// 입차 GATE NM
+      public string? IN_GATE_NM { get; set; }
+      /// 입차 라인 번호
+      public int IN_LINE_NUM { get; set; }
+      /// 입차 일시 (yyyy-MM-dd HH:mm:ss)
+      public string? IN_DTM { get; set; }
+      /// 입차 LPR 상태
+      public string? IN_LPR_STATUS { get; set; }
+      /// 입차 LPR 상태 명칭
+      public string? IN_LPR_STATUS_NM { get; set; }
+      /// 입차 구분 # 2 : 일반차량, 6 : 정기차량
+      public string? IN_TICKET_TP { get; set; }
+      /// 입차 차량 구분 명
+      public string? IN_TICKET_TP_NM { get; set; }
+      /// 블랙리스트 정보  
+      public RequestInBlackListInfoDTO BLACK_LIST_INFO { get; set; }
+      /// 이미지 경로 (HTTP 웹 경로)
+      public string? IMG_PATH { get; set; }
+      /// 동 (정기권, 예약차량일 경우 동 정보)
+      public string? DONG { get; set; }
+      /// 호 (정기권, 예약차량일 경우 호 정보)
+      public string? HO { get; set; }
+      /// 예약 차량 여부 (0, 1)
+      public string? IS_RESERVATION { get; set; }
+      /// 입차 처리/대기 여부 (0, 1, 2)
+      /// 0: 입차, 1: 입차대기, 2: 입차대기 후 승인
+      public string? IS_WAIT { get; set; }
+      /// 대기 걸린 차량의 이유
+      public string? IS_WAIT_REASON { get; set; }
+      public string? ETC { get; set; }
+  }
+  public class RequestInBlackListInfoDTO
+  {
+      /// 블랙리스트 여부 (0 또는 1)
+      public string? IS_BLACK_LIST { get; set; }
+      /// 블랙리스트 사유
+      public string? BLACK_LIST_REASON { get; set; }
+      /// 등록 일시
+      public string? REG_DTM { get; set; }
+  }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/TheHamBiz -&gt; 여긴 우리서버 주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class RequestOutTheHamBizDTO
+    {
+        /// 입출차 일련번호
+        public string? IO_SEQ { get; set; }
+        /// 주차장 ID
+        public string? PARK_ID { get; set; }
+        /// 차량 번호
+        public string? CAR_NUM { get; set; }
+        /// 입출 상태
+        public string? IO_STATUS_TP { get; set; }
+        /// 입출 상태 명
+        public string? IO_STATUS_TP_NM { get; set; }
+        /// 출차 GATE ID
+        public string? OUT_GATE_ID { get; set; }
+        /// 출차 GATE NM
+        public string? OUT_GATE_NM { get; set; }
+        /// 출차 라인번호
+        public int OUT_LINE_NUM { get; set; }
+        /// 출차 일시 yyyy-MM-dd HH:mm:ss
+        public string? OUT_DTM { get; set; }
+        /// 출차 LPR 상태
+        public string? OUT_LPR_STATUS { get; set; }
+        /// 출차 LPR 상태 명칭
+        public string? OUT_LPR_STATUS_NM { get; set; }
+        /// 출차 차량 구분
+        public string? OUT_TICKET_TP { get; set; }
+        /// 출차 차량 구분 명
+        public string? OUT_TICKET_TP_NM { get; set; }
+        /// 동
+        public string? DONG { get; set; }
+        /// 호
+        public string? HO { get; set; }
+        /// 예약차량여부 # 0: 일반, 1: 일반 2: 홈넷 예약
+        public string? IS_RESERVATION { get; set; }
+        /// 블랙리스트 정보
+        public RequestOutBlackListInfoDTO? BLACK_LIST_INFO { get; set; }
+        /// 이미지 경로 #http 웹 경로로 받아야함.
+        public string? IMG_PATH { get; set; }
+        /// 예약차량일 경우 (예약 사유, 방문차량일경우 방문사유)
+        public string? ETC { get; set; }
+        /// 주차 시간
+        public int PARK_DURATION { get; set; }
+        /// 방문 시간 (방문포인트 사용 시간)
+        public int VISIT_TIME { get; set; }
+    }
+    public class RequestOutBlackListInfoDTO
+    {
+        /// 블랙리스트 여부 (입차처리 * 블랙리스트로 표시) OR 입차대기 걸고 블랙리스트 표시
+        public string? IS_BLACK_LIST { get; set; }
+        /// 블랙리스트 사유
+        public string? BLACK_LIST_REASON { get; set; }
+        /// 등록 일시
+        public string? REG_DTM { get; set; }
+    }
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class RequestPadTheHamBizDTO
+    {
+        /// 주차장 ID
+       public string? PARK_ID { get; set; }
+        /// 순찰 담당자 ID
+        public string? PATROL_USER_ID { get; set; }
+        /// 순찰 담당자 이름
+        public int PATROL_USER_NM { get; set; }
+        /// 순찰 일시 yyyy-MM-dd HH:mm:ss
+        public string? PATROL_START_DTM { get; set; }
+        /// 순찰 종료 일시 yyyy-MM-dd HH:mm:ss
+        public string? PATROL_END_DTM { get; set; }
+        /// 전체 데이터 개수
+        public int TOT_CNT { get; set; }
+        public List&lt;PatListInfoDTO&gt;? PAY_LOAD { get; set; } = new List&lt;PatListInfoDTO&gt;();
+    }
+    public class PatListInfoDTO
+    {
+        /// 순찰 일시 yyyy-MM-dd HH:mm:ss
+        public string? PATROL_DTM { get; set; }
+        /// 순찰 상태 코드 0: 정상(입주민), 1: 방문객, 2: 순착, 3:위반 (블랙리스트)
+        public int PATROL_CODE { get; set; }
+        /// 순찰 상태 명
+        public string? PATROL_NAME { get; set; }
+        /// 차량 번호
+        public string? CAR_NUM { get; set; }
+        /// 순찰 이미지
+        public string? PATROL_IMG { get; set; }
+        /// 순찰 비고
+        public string? PATROL_REMARK { get; set; }
+    }
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  private class ResponseDTO
+  {
+      /// &lt;summary&gt;
+      /// 1. 성공, 2. 필수값 누락
+      /// &lt;/summary&gt;
+      public string? RES_CD { get; set; }
+      /// &lt;summary&gt;
+      /// 메시지
+      /// &lt;/summary&gt;
+      public string? RES_MSG { get; set; }
+  }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +508,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,12 +805,12 @@
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
     <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="77.125" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
@@ -602,144 +819,239 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="409.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+    <row r="9" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="149.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="10" spans="1:10" ht="149.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="12" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="13" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+    <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="s">
+    <row r="16" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="17" spans="2:7" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F17" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>33</v>
       </c>
     </row>

--- a/API정리.xlsx
+++ b/API정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>기능명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -146,9 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://123.2.156.148:5255/swagger/index.html</t>
-  </si>
-  <si>
     <t>입-출차</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,63 +212,6 @@
   </si>
   <si>
     <t>/api/TheHamBiz -&gt; 여긴 우리서버 주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  public class RequestInTheHamBizDTO
-  {
-      /// 입출차 일련번호
-      public string? IO_SEQ { get; set; }
-      /// 주차장 ID
-      public string? PARK_ID { get; set; }
-      /// 차량 번호
-      public string? CAR_NUM { get; set; }
-      /// 입출 상태
-      public string? IO_STATUS_TP { get; set; }
-      /// 입출 상태명
-      public string? IO_STATUS_TP_NM { get; set; }
-      /// 입차 GATE ID
-      public string? IN_GATE_ID { get; set; }
-      /// 입차 GATE NM
-      public string? IN_GATE_NM { get; set; }
-      /// 입차 라인 번호
-      public int IN_LINE_NUM { get; set; }
-      /// 입차 일시 (yyyy-MM-dd HH:mm:ss)
-      public string? IN_DTM { get; set; }
-      /// 입차 LPR 상태
-      public string? IN_LPR_STATUS { get; set; }
-      /// 입차 LPR 상태 명칭
-      public string? IN_LPR_STATUS_NM { get; set; }
-      /// 입차 구분 # 2 : 일반차량, 6 : 정기차량
-      public string? IN_TICKET_TP { get; set; }
-      /// 입차 차량 구분 명
-      public string? IN_TICKET_TP_NM { get; set; }
-      /// 블랙리스트 정보  
-      public RequestInBlackListInfoDTO BLACK_LIST_INFO { get; set; }
-      /// 이미지 경로 (HTTP 웹 경로)
-      public string? IMG_PATH { get; set; }
-      /// 동 (정기권, 예약차량일 경우 동 정보)
-      public string? DONG { get; set; }
-      /// 호 (정기권, 예약차량일 경우 호 정보)
-      public string? HO { get; set; }
-      /// 예약 차량 여부 (0, 1)
-      public string? IS_RESERVATION { get; set; }
-      /// 입차 처리/대기 여부 (0, 1, 2)
-      /// 0: 입차, 1: 입차대기, 2: 입차대기 후 승인
-      public string? IS_WAIT { get; set; }
-      /// 대기 걸린 차량의 이유
-      public string? IS_WAIT_REASON { get; set; }
-      public string? ETC { get; set; }
-  }
-  public class RequestInBlackListInfoDTO
-  {
-      /// 블랙리스트 여부 (0 또는 1)
-      public string? IS_BLACK_LIST { get; set; }
-      /// 블랙리스트 사유
-      public string? BLACK_LIST_REASON { get; set; }
-      /// 등록 일시
-      public string? REG_DTM { get; set; }
-  }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -385,12 +325,101 @@
   }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>http://123.2.156.148:5255/swagger/index.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  public class RequestInTheHamBizDTO
+  {
+      /// 입출차 일련번호
+      public string? IO_SEQ { get; set; }
+      /// 주차장 ID
+      public string? PARK_ID { get; set; }
+      /// 차량 번호
+      public string? CAR_NUM { get; set; }
+      /// 입출 상태
+      public string? IO_STATUS_TP { get; set; }
+      /// 입출 상태명
+      public string? IO_STATUS_TP_NM { get; set; }
+      /// 입차 GATE ID
+      public string? IN_GATE_ID { get; set; }
+      /// 입차 GATE NM
+      public string? IN_GATE_NM { get; set; }
+      /// 입차 라인 번호
+      public int IN_LINE_NUM { get; set; }
+      /// 입차 일시 (yyyy-MM-dd HH:mm:ss)
+      public string? IN_DTM { get; set; }
+      /// 입차 LPR 상태
+      public string? IN_LPR_STATUS { get; set; }
+      /// 입차 LPR 상태 명칭
+      public string? IN_LPR_STATUS_NM { get; set; }
+      /// 입차 구분 # 2 : 일반차량, 6 : 정기차량
+      public string? IN_TICKET_TP { get; set; }
+      /// 입차 차량 구분 명
+      public string? IN_TICKET_TP_NM { get; set; }
+      /// 블랙리스트 정보  
+      public RequestInBlackListInfoDTO BLACK_LIST_INFO { get; set; }
+      /// 이미지 경로 (HTTP 웹 경로)
+      public string? IMG_PATH { get; set; }
+      /// 동 (정기권, 예약차량일 경우 동 정보)
+      public string? DONG { get; set; }
+      /// 호 (정기권, 예약차량일 경우 호 정보)
+      public string? HO { get; set; }
+      /// 예약 차량 여부 (0, 1)
+      public string? IS_RESERVATION { get; set; }
+      /// 입차 처리/대기 여부 (0, 1, 2)
+      /// 0: 입차, 1: 입차대기, 2: 입차대기 후 승인
+      public string? IS_WAIT { get; set; }
+      /// 대기 걸린 차량의 이유
+      public string? IS_WAIT_REASON { get; set; }
+      public string? ETC { get; set; }
+  }
+  public class RequestInBlackListInfoDTO
+  {
+      /// 블랙리스트 여부 (0 또는 1)
+      public string? IS_BLACK_LIST { get; set; }
+      /// 블랙리스트 사유
+      public string? BLACK_LIST_REASON { get; set; }
+      /// 등록 일시
+      public string? REG_DTM { get; set; }
+  }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  private class ResponseDTO
+  {
+      /// &lt;summary&gt;
+      /// 1. 성공, 2. 필수값 누락
+      /// &lt;/summary&gt;
+      public string? RES_CD { get; set; }
+      /// &lt;summary&gt;
+      /// 메시지
+      /// &lt;/summary&gt;
+      public string? RES_MSG { get; set; }
+  }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  private class ResponseDTO
+  {
+      /// &lt;summary&gt;
+      /// 1. 성공, 2. 필수값 누락
+      /// &lt;/summary&gt;
+      public string? RES_CD { get; set; }
+      /// &lt;summary&gt;
+      /// 메시지
+      /// &lt;/summary&gt;
+      public string? RES_MSG { get; set; }
+  }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +459,15 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -483,15 +521,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,10 +554,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -796,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -814,14 +859,14 @@
       <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -846,63 +891,63 @@
     </row>
     <row r="4" spans="1:10" ht="409.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -916,7 +961,7 @@
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1012,7 +1057,7 @@
     </row>
     <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1037,26 +1082,29 @@
     </row>
     <row r="17" spans="2:7" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/API정리.xlsx
+++ b/API정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>기능명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ResponseUnit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>참고사항</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,10 +83,6 @@
   </si>
   <si>
     <t>HttpGet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResponseList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -118,10 +110,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ResponseUnit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>InOut/api/v1/UpdateRowMemo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -164,10 +152,6 @@
   <si>
     <t>[FromQuery] int pageNumber
 [FromQuery] int pageSize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResponseUnit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -412,6 +396,215 @@
       /// &lt;/summary&gt;
       public string? RES_MSG { get; set; }
   }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차번으로 7일 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InOut/api/v1/ViewLastWeeks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpGet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[FromQuery] string carNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "metas": {
+    "pageNumber": 1,
+    "pageSize": 15,
+    "totalCount": 100,
+    "totalPages": 7
+  },
+  "data": {
+    "items": [
+      {
+        "pId": 12,
+        "ioSeq": "P2177010120240613082249851",
+        "ioTicketTp": "2",
+        "ioTicketTpNm": "방문차량",
+        "ioStatusTp": "20",
+        "ioStatusTpNm": "출차",
+        "carNum": "44거1010",
+        "inDtm": "2024-06-13T05:38:07",
+        "outDtm": "2024-06-13T05:38:07",
+        "parkingDuration": 36,
+        "inGateId": "1",
+        "inGateNm": "정문",
+        "outGateId": "1",
+        "outGateNm": "정문",
+        "dong": "101",
+        "ho": "1001",
+        "inImagePath": "http://thehambizp0002.iptime.org:8000/image/2025\\02\\28\\102\\20250228100533_228오1005.jpg",
+        "outImagePath": "http://thehambizp0002.iptime.org:8000/image/2025\\02\\28\\102\\20250228100533_228오1005.jpg",
+        "isBlacklist": "0",
+        "blacklistReason": "",
+        "memo": null
+      }
+    ]
+  },
+  "code": 200
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InOut/api/v1/DetailView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "data": [
+    {
+      "pId": 62,
+      "ioGubun": 1,
+      "ioSeq": "P2177010120240613082249851",
+      "parkId": "2177",
+      "carNum": "33마3434",
+      "ioStatusTp": "10",
+      "ioStatusTpNm": "입차",
+      "ioGateId": "1",
+      "ioGateNm": "정문",
+      "ioLineNum": 1,
+      "ioDtm": "2024-06-13T05:38:07",
+      "ioLprStatus": "0",
+      "ioLprStatusNm": "",
+      "ioTicketTp": "2",
+      "ioTicketTpNm": "방문차량",
+      "dong": "101",
+      "ho": "1001",
+      "isReservation": "0",
+      "isBlacklist": "0",
+      "blacklistReason": "",
+      "regDtm": "",
+      "imgPath": "http://thehambizp0002.iptime.org:8000/image/2025\\02\\28\\102\\20250228100533_228오1005.jpg",
+      "isWait": "0",
+      "isWaitReason": "",
+      "parkDuration": null,
+      "visitTime": null,
+      "etc": "",
+      "memo": null
+    },
+    {
+      "pId": 63,
+      "ioGubun": 1,
+      "ioSeq": "P2177010120240613082249851",
+      "parkId": "2177",
+      "carNum": "33마3434",
+      "ioStatusTp": "20",
+      "ioStatusTpNm": "출차",
+      "ioGateId": "1",
+      "ioGateNm": "정문",
+      "ioLineNum": 1,
+      "ioDtm": "2024-06-13T05:38:07",
+      "ioLprStatus": "0",
+      "ioLprStatusNm": "",
+      "ioTicketTp": "2",
+      "ioTicketTpNm": "방문차량",
+      "dong": "101",
+      "ho": "1001",
+      "isReservation": "0",
+      "isBlacklist": "0",
+      "blacklistReason": "",
+      "regDtm": "",
+      "imgPath": "http://thehambizp0002.iptime.org:8000/image/2025\\02\\28\\102\\20250228100533_228오1005.jpg",
+      "isWait": "0",
+      "isWaitReason": "",
+      "parkDuration": 35,
+      "visitTime": null,
+      "etc": "",
+      "memo": null
+    }
+  ],
+  "code": 200
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "data": [
+    {
+      "pId": 69,
+      "ioGubun": 1,
+      "ioSeq": "P2177010120240613082249851",
+      "parkId": "2177",
+      "carNum": "33마3434",
+      "ioStatusTp": "10",
+      "ioStatusTpNm": "입차",
+      "ioGateId": "1",
+      "ioGateNm": "정문",
+      "ioLineNum": 1,
+      "ioDtm": "2025-03-13T12:19:05.4577201+09:00",
+      "ioLprStatus": "0",
+      "ioLprStatusNm": "",
+      "ioTicketTp": "2",
+      "ioTicketTpNm": "방문차량",
+      "dong": "101",
+      "ho": "1001",
+      "isReservation": "0",
+      "isBlacklist": "0",
+      "blacklistReason": "",
+      "regDtm": "",
+      "imgPath": "http://thehambizp0002.iptime.org:8000/image/2025\\02\\28\\102\\20250228100533_228오1005.jpg",
+      "isWait": "0",
+      "isWaitReason": "",
+      "parkDuration": null,
+      "visitTime": null,
+      "etc": "",
+      "memo": null
+    },
+    {
+      "pId": 70,
+      "ioGubun": 0,
+      "ioSeq": "P2177010120240613082249851",
+      "parkId": "2177",
+      "carNum": "44거1010",
+      "ioStatusTp": "20",
+      "ioStatusTpNm": "출차",
+      "ioGateId": "1",
+      "ioGateNm": "정문",
+      "ioLineNum": 2,
+      "ioDtm": "2025-03-20T12:19:05.4577237+09:00",
+      "ioLprStatus": "0",
+      "ioLprStatusNm": "",
+      "ioTicketTp": "2",
+      "ioTicketTpNm": "방문차량",
+      "dong": "101",
+      "ho": "1001",
+      "isReservation": "0",
+      "isBlacklist": "0",
+      "blacklistReason": "",
+      "regDtm": "",
+      "imgPath": "http://thehambizp0002.iptime.org:8000/image/2025\\02\\28\\102\\20250228100533_228오1005.jpg",
+      "isWait": null,
+      "isWaitReason": null,
+      "parkDuration": 36,
+      "visitTime": 36,
+      "etc": "",
+      "memo": null
+    }
+  ],
+  "code": 200
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "pId": 0,
+  "memo": "string"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "pId": 0,
+  "memo": "string"
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -841,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -857,16 +1050,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -886,68 +1079,68 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="409.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -961,7 +1154,7 @@
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -981,15 +1174,15 @@
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="149.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="409.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -997,67 +1190,84 @@
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
       <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1077,27 +1287,24 @@
         <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1106,5 +1313,6 @@
     <hyperlink ref="C1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>